--- a/SchedulingData/dynamic13/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>206.46</v>
+        <v>236.88</v>
       </c>
       <c r="D2" t="n">
-        <v>255.72</v>
+        <v>289.48</v>
       </c>
       <c r="E2" t="n">
-        <v>15.908</v>
+        <v>13.692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>255.72</v>
+        <v>212.58</v>
       </c>
       <c r="D3" t="n">
-        <v>305.72</v>
+        <v>257.86</v>
       </c>
       <c r="E3" t="n">
-        <v>13.048</v>
+        <v>14.264</v>
       </c>
     </row>
     <row r="4">
@@ -504,150 +504,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>215.12</v>
+        <v>201.32</v>
       </c>
       <c r="D4" t="n">
-        <v>255.28</v>
+        <v>260.82</v>
       </c>
       <c r="E4" t="n">
-        <v>14.612</v>
+        <v>15.068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>229.96</v>
+        <v>260.82</v>
       </c>
       <c r="D5" t="n">
-        <v>312.26</v>
+        <v>315.5</v>
       </c>
       <c r="E5" t="n">
-        <v>12.924</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>255.28</v>
+        <v>227.62</v>
       </c>
       <c r="D6" t="n">
-        <v>299.86</v>
+        <v>284.44</v>
       </c>
       <c r="E6" t="n">
-        <v>11.284</v>
+        <v>12.176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>305.72</v>
+        <v>284.44</v>
       </c>
       <c r="D7" t="n">
-        <v>345.44</v>
+        <v>338.82</v>
       </c>
       <c r="E7" t="n">
-        <v>10.716</v>
+        <v>9.368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>345.44</v>
+        <v>254.42</v>
       </c>
       <c r="D8" t="n">
-        <v>390.76</v>
+        <v>302.12</v>
       </c>
       <c r="E8" t="n">
-        <v>7.804</v>
+        <v>14.768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206.7</v>
+        <v>289.48</v>
       </c>
       <c r="D9" t="n">
-        <v>251.5</v>
+        <v>337.32</v>
       </c>
       <c r="E9" t="n">
-        <v>14.52</v>
+        <v>9.548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>390.76</v>
+        <v>338.82</v>
       </c>
       <c r="D10" t="n">
-        <v>453.5</v>
+        <v>379.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3.66</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>312.26</v>
+        <v>257.86</v>
       </c>
       <c r="D11" t="n">
-        <v>389.86</v>
+        <v>309.94</v>
       </c>
       <c r="E11" t="n">
-        <v>7.764</v>
+        <v>10.676</v>
       </c>
     </row>
     <row r="12">
@@ -656,60 +656,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>299.86</v>
+        <v>315.5</v>
       </c>
       <c r="D12" t="n">
-        <v>368.16</v>
+        <v>365.92</v>
       </c>
       <c r="E12" t="n">
-        <v>7.544</v>
+        <v>8.827999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>251.5</v>
+        <v>337.32</v>
       </c>
       <c r="D13" t="n">
-        <v>329.86</v>
+        <v>384.82</v>
       </c>
       <c r="E13" t="n">
-        <v>10.264</v>
+        <v>6.428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>329.86</v>
+        <v>365.92</v>
       </c>
       <c r="D14" t="n">
-        <v>369.24</v>
+        <v>405.44</v>
       </c>
       <c r="E14" t="n">
-        <v>7.456</v>
+        <v>6.496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>369.24</v>
+        <v>384.82</v>
       </c>
       <c r="D15" t="n">
-        <v>423.74</v>
+        <v>479.02</v>
       </c>
       <c r="E15" t="n">
-        <v>3.136</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>453.5</v>
+        <v>302.12</v>
       </c>
       <c r="D16" t="n">
-        <v>517.48</v>
+        <v>361.32</v>
       </c>
       <c r="E16" t="n">
-        <v>0.852</v>
+        <v>11.468</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>517.48</v>
+        <v>257.06</v>
       </c>
       <c r="D17" t="n">
-        <v>582.78</v>
+        <v>308.12</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>9.488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>389.86</v>
+        <v>479.02</v>
       </c>
       <c r="D18" t="n">
-        <v>437.56</v>
+        <v>556.7</v>
       </c>
       <c r="E18" t="n">
-        <v>4.124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>423.74</v>
+        <v>556.7</v>
       </c>
       <c r="D19" t="n">
-        <v>478.9</v>
+        <v>591.78</v>
       </c>
       <c r="E19" t="n">
-        <v>0.76</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>478.9</v>
+        <v>379.8</v>
       </c>
       <c r="D20" t="n">
-        <v>554.28</v>
+        <v>414.86</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>218.88</v>
+        <v>361.32</v>
       </c>
       <c r="D21" t="n">
-        <v>268.58</v>
+        <v>397.68</v>
       </c>
       <c r="E21" t="n">
-        <v>10.332</v>
+        <v>8.972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>437.56</v>
+        <v>405.44</v>
       </c>
       <c r="D22" t="n">
-        <v>468.16</v>
+        <v>455.96</v>
       </c>
       <c r="E22" t="n">
-        <v>1.704</v>
+        <v>3.064</v>
       </c>
     </row>
     <row r="23">
@@ -865,242 +865,242 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>468.16</v>
+        <v>397.68</v>
       </c>
       <c r="D23" t="n">
-        <v>566.15</v>
+        <v>455.48</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>201.02</v>
+        <v>455.96</v>
       </c>
       <c r="D24" t="n">
-        <v>271.44</v>
+        <v>516.83</v>
       </c>
       <c r="E24" t="n">
-        <v>18.336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>554.28</v>
+        <v>516.83</v>
       </c>
       <c r="D25" t="n">
-        <v>605.76</v>
+        <v>564.3099999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>27.032</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>368.16</v>
+        <v>309.94</v>
       </c>
       <c r="D26" t="n">
-        <v>419.12</v>
+        <v>356.6</v>
       </c>
       <c r="E26" t="n">
-        <v>5.048</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>268.58</v>
+        <v>591.78</v>
       </c>
       <c r="D27" t="n">
-        <v>312.88</v>
+        <v>631.26</v>
       </c>
       <c r="E27" t="n">
-        <v>7.032</v>
+        <v>24.384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>271.44</v>
+        <v>414.86</v>
       </c>
       <c r="D28" t="n">
-        <v>310.96</v>
+        <v>462.26</v>
       </c>
       <c r="E28" t="n">
-        <v>16.004</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>310.96</v>
+        <v>462.26</v>
       </c>
       <c r="D29" t="n">
-        <v>378.14</v>
+        <v>552.15</v>
       </c>
       <c r="E29" t="n">
-        <v>12.416</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>566.15</v>
+        <v>631.26</v>
       </c>
       <c r="D30" t="n">
-        <v>604.95</v>
+        <v>680.58</v>
       </c>
       <c r="E30" t="n">
-        <v>26.82</v>
+        <v>22.052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>582.78</v>
+        <v>552.15</v>
       </c>
       <c r="D31" t="n">
-        <v>654.88</v>
+        <v>607.55</v>
       </c>
       <c r="E31" t="n">
-        <v>27.92</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>419.12</v>
+        <v>308.12</v>
       </c>
       <c r="D32" t="n">
-        <v>468.3</v>
+        <v>360.86</v>
       </c>
       <c r="E32" t="n">
-        <v>2.24</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>378.14</v>
+        <v>360.86</v>
       </c>
       <c r="D33" t="n">
-        <v>431.5</v>
+        <v>412.86</v>
       </c>
       <c r="E33" t="n">
-        <v>8.720000000000001</v>
+        <v>2.264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>605.76</v>
+        <v>356.6</v>
       </c>
       <c r="D34" t="n">
-        <v>670.72</v>
+        <v>414.94</v>
       </c>
       <c r="E34" t="n">
-        <v>24.656</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>468.3</v>
+        <v>412.86</v>
       </c>
       <c r="D35" t="n">
-        <v>540.72</v>
+        <v>490.03</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,94 +1108,94 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>540.72</v>
+        <v>490.03</v>
       </c>
       <c r="D36" t="n">
-        <v>588.4400000000001</v>
+        <v>535.79</v>
       </c>
       <c r="E36" t="n">
-        <v>27.408</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>312.88</v>
+        <v>455.48</v>
       </c>
       <c r="D37" t="n">
-        <v>365.08</v>
+        <v>520.48</v>
       </c>
       <c r="E37" t="n">
-        <v>3.952</v>
+        <v>3.372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>431.5</v>
+        <v>535.79</v>
       </c>
       <c r="D38" t="n">
-        <v>477.06</v>
+        <v>573.6900000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>5.304</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>477.06</v>
+        <v>414.94</v>
       </c>
       <c r="D39" t="n">
-        <v>525.5</v>
+        <v>488.06</v>
       </c>
       <c r="E39" t="n">
-        <v>2.08</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>525.5</v>
+        <v>488.06</v>
       </c>
       <c r="D40" t="n">
-        <v>608.04</v>
+        <v>567.51</v>
       </c>
       <c r="E40" t="n">
         <v>30</v>
@@ -1203,21 +1203,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>608.04</v>
+        <v>564.3099999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>641.54</v>
+        <v>619.0700000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>27.84</v>
+        <v>24.556</v>
       </c>
     </row>
     <row r="42">
@@ -1226,74 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>604.95</v>
+        <v>520.48</v>
       </c>
       <c r="D42" t="n">
-        <v>656.85</v>
+        <v>600.6</v>
       </c>
       <c r="E42" t="n">
-        <v>23.74</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>365.08</v>
+        <v>600.6</v>
       </c>
       <c r="D43" t="n">
-        <v>426.64</v>
+        <v>686.48</v>
       </c>
       <c r="E43" t="n">
-        <v>0.916</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>426.64</v>
+        <v>573.6900000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>521.21</v>
+        <v>650.29</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pond11</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>654.88</v>
-      </c>
-      <c r="D45" t="n">
-        <v>702.28</v>
-      </c>
-      <c r="E45" t="n">
-        <v>24.8</v>
+        <v>23.384</v>
       </c>
     </row>
   </sheetData>
